--- a/app/scripts/lectures/Profs Time.xlsx
+++ b/app/scripts/lectures/Profs Time.xlsx
@@ -64,7 +64,7 @@
     <row r="1" spans="1:2" customHeight="0">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>Profs</t>
+          <t>profs</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
@@ -81,7 +81,19 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Sunday-2:00PM-3:30PM</t>
+          <t>Sunday-2:00PM:3:30PM,Sunday-12:30PM:2:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customHeight="0">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Wendy Stokes</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Friday-9:00AM:10:30AM,Friday-10:30AM:12:00PM,Friday-12:30PM:2:00PM,Friday-2:00PM:3:30PM,Friday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
         </is>
       </c>
     </row>

--- a/app/scripts/lectures/Profs Time.xlsx
+++ b/app/scripts/lectures/Profs Time.xlsx
@@ -81,7 +81,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Sunday-2:00PM:3:30PM,Sunday-12:30PM:2:00PM</t>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
         </is>
       </c>
     </row>
@@ -93,7 +93,259 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Friday-9:00AM:10:30AM,Friday-10:30AM:12:00PM,Friday-12:30PM:2:00PM,Friday-2:00PM:3:30PM,Friday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customHeight="0">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Creola Hoeger</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customHeight="0">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Cortney Heller</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customHeight="0">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Percival Greenholt</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:2" customHeight="0">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Prof. Virgie Braun II</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:2" customHeight="0">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Mireya Price</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:2" customHeight="0">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Adah Hyatt</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:2" customHeight="0">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Danny Prohaska</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:2" customHeight="0">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Ofelia O'Conner Jr.</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:2" customHeight="0">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Keanu Kuhlman</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:2" customHeight="0">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Amy Cole</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:2" customHeight="0">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Lexi Cassin</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:2" customHeight="0">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Jayde Predovic I</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:2" customHeight="0">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Marcus Hegmann</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:2" customHeight="0">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Miss Edna Schuppe</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:2" customHeight="0">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Theron Larson</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:2" customHeight="0">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Miss Myriam Huel</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:2" customHeight="0">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Carroll Hirthe DVM</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:2" customHeight="0">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Wallace Kulas</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:2" customHeight="0">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Camille Christiansen</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:2" customHeight="0">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Lincoln Predovic</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:2" customHeight="0">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Araceli Hand</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
         </is>
       </c>
     </row>

--- a/app/scripts/lectures/Profs Time.xlsx
+++ b/app/scripts/lectures/Profs Time.xlsx
@@ -349,6 +349,126 @@
         </is>
       </c>
     </row>
+    <row r="25" spans="1:2" customHeight="0">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Osvaldo Boyle PhD</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Wednesday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Thursday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:2" customHeight="0">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Darwin Nicolas</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:2" customHeight="0">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Mr. Howard Willms II</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:2" customHeight="0">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Carissa Adams</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:2" customHeight="0">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Prof. Eladio Franecki</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-10:30AM:12:00PM,Sunday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:2" customHeight="0">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Yvonne Treutel PhD</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:2" customHeight="0">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Laisha Schultz</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-10:30AM:12:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:2" customHeight="0">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Maymie Haley</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="1:2" customHeight="0">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Destinee Feest</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="1:2" customHeight="0">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Vernie Sporer</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Sunday-9:00AM:10:30AM,Sunday-10:30AM:12:00PM,Sunday-12:30PM:2:00PM,Sunday-2:00PM:3:30PM,Sunday-3:30PM:5:00PM,Monday-9:00AM:10:30AM,Monday-10:30AM:12:00PM,Monday-12:30PM:2:00PM,Monday-2:00PM:3:30PM,Monday-3:30PM:5:00PM,Tuesday-9:00AM:10:30AM,Tuesday-10:30AM:12:00PM,Tuesday-12:30PM:2:00PM,Tuesday-2:00PM:3:30PM,Tuesday-3:30PM:5:00PM,Wednesday-9:00AM:10:30AM,Wednesday-10:30AM:12:00PM,Wednesday-12:30PM:2:00PM,Wednesday-2:00PM:3:30PM,Wednesday-3:30PM:5:00PM,Thursday-9:00AM:10:30AM,Thursday-10:30AM:12:00PM,Thursday-12:30PM:2:00PM,Thursday-2:00PM:3:30PM,Thursday-3:30PM:5:00PM,Saturday-9:00AM:10:30AM,Saturday-10:30AM:12:00PM,Saturday-12:30PM:2:00PM,Saturday-2:00PM:3:30PM,Saturday-3:30PM:5:00PM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <legacyDrawing r:id="rId_comments_vml1"/>
 </worksheet>
